--- a/data/trans_orig/CALVIDA_SF12_PCB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Clase-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,48 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -105,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -501,400 +461,435 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Grupo I y II</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>44,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>43,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>44,14</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>44.73210765292209</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>43.45392012116908</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>44.15360391072505</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>44,29; 45,17</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>43,02; 43,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>43,83; 44,48</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>44.28453253592828</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>42.96899711001589</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>43.81314943018806</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>45.14817614290634</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>43.91005859383066</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>44.52492079685329</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Grupo III</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>43,54</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>43,82</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>43,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>43,1; 44,02</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>43,27; 44,3</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>43,31; 44,02</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>43.63677869997108</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>43.77599452801469</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>43.70119706815835</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>43.13278082948588</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>43.26442894881418</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>43.33535525614698</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>44.13565555704268</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>44.30934677893266</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>44.06443945621605</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Grupo IV y V</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>43,82</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>42,92</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>43,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>43,21; 44,42</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>42,11; 43,76</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>43,02; 44,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>43.81855591927314</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>42.88573193272208</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>43.53482199240526</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>43.0694154460784</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>41.97800245507362</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>42.97071558931935</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>44.4166170502157</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>43.69000828898417</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>44.04938363959604</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Grupo VI</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>43,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>43,91</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>43,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>42,85; 43,6</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>43,57; 44,26</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>43,28; 43,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>43.21932402811123</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>43.93186149405932</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>43.53591285605412</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>42.76441393810708</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>43.52028369743987</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>43.24219912185696</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>43.67350780267582</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>44.32021539008907</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>43.87484505598172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Grupo VII</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>43,75</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>43,52</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>43,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>43,09; 44,35</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>43,1; 43,99</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>43,24; 44,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>43.55120355286934</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>43.44876573722366</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>43.48652688058313</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>42.78668927396987</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>42.9710128162062</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>43.08292053007558</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>44.35136344571662</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>44.05934752509867</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>43.94581511244536</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>No ha trabajado</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>43,02</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>43,2</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>43,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>42,09; 43,88</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>42,77; 43,62</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>42,72; 43,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>43.24880066646322</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>43.29388490989993</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>43.28303762051205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>42.3038852578137</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>42.80038633975991</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>42.87107650341289</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>44.06611038898912</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>43.83163176074326</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>43.7324222309597</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>43,7</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>43,53</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>43,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>43,47; 43,92</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>43,33; 43,72</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>43,47; 43,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>43.72639768167827</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>43.53438652086195</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>43.6273223868411</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>43.48140875926565</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>43.32353285177948</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>43.45570562628951</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>43.9513845276953</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>43.76498762223012</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>43.77133326364574</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -902,14 +897,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
